--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_dropout_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/AC_ACOSTADO/Sujeto_Posicion_dropout_1.xlsx
@@ -454,12 +454,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.3592900972078277</t>
+          <t>0.359290633300427</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.37607053518350864</t>
+          <t>0.3760711507377364</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.35908777261633024</t>
+          <t>0.35908777348004517</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.3758382407288846</t>
+          <t>0.3758382417204568</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.35848453196512275</t>
+          <t>0.35848493208219684</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.37514587331600135</t>
+          <t>0.37514633243506457</t>
         </is>
       </c>
     </row>
@@ -604,12 +604,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.3381553971817468</t>
+          <t>0.3381519731946861</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.35200829294972585</t>
+          <t>0.3520044268863835</t>
         </is>
       </c>
     </row>
@@ -654,12 +654,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.30656306274574024</t>
+          <t>0.30656208772295607</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.3167475253309445</t>
+          <t>0.3167464491698847</t>
         </is>
       </c>
     </row>
@@ -704,12 +704,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.29207705633527997</t>
+          <t>0.2920858580108102</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.30083553627581555</t>
+          <t>0.30084515887004004</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.28744084281544646</t>
+          <t>0.28744112149928985</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.2957743739154127</t>
+          <t>0.2957746776985207</t>
         </is>
       </c>
     </row>
@@ -804,12 +804,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2868984761339373</t>
+          <t>0.2869023261325447</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.29518326018499</t>
+          <t>0.2951874555083862</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.2866362013997948</t>
+          <t>0.2866360694872287</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.29489748454401765</t>
+          <t>0.2948973408233196</t>
         </is>
       </c>
     </row>
